--- a/data/trans_camb/P1802_2016_2023-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1802_2016_2023-Edad-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-2.485707923962335</v>
+        <v>-2.485707923962337</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>-2.013347064037729</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.327960936478542</v>
+        <v>-2.327960936478543</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.21198788795228</v>
+        <v>-7.285389452081477</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.425254429291024</v>
+        <v>-7.733892791089469</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.146336672924384</v>
+        <v>-5.723527691913601</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.822820592774347</v>
+        <v>3.04734066264368</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.661011233156789</v>
+        <v>4.051628770348372</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.515807092518175</v>
+        <v>1.858819740581177</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.2424201168625549</v>
+        <v>-0.242420116862555</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-0.1378977006533735</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1882884036755006</v>
+        <v>-0.1882884036755007</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5920551530379575</v>
+        <v>-0.6279903647713505</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4507932014577856</v>
+        <v>-0.4587385023947621</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4410234385980664</v>
+        <v>-0.4380420558591309</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3324688369403916</v>
+        <v>0.3752895840199717</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3688123166085781</v>
+        <v>0.3477160578216933</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1407528609118232</v>
+        <v>0.1673258122210446</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-1.970505137647148</v>
+        <v>-1.970505137647147</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-3.992472032782953</v>
+        <v>-3.992472032782954</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-2.915055775739815</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.87611547395872</v>
+        <v>-6.434294727108192</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.808631012800521</v>
+        <v>-8.29811355629489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.991431994348821</v>
+        <v>-5.802221466783424</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.881916136349177</v>
+        <v>2.146427666898573</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.841215907934313</v>
+        <v>0.004193926705564979</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.0525822363967053</v>
+        <v>0.4358069657056792</v>
       </c>
     </row>
     <row r="13">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.1727718923142717</v>
+        <v>-0.1727718923142716</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.2625246219138566</v>
+        <v>-0.2625246219138567</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.2198016680309834</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4614384319783497</v>
+        <v>-0.4974637013699783</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4557671451588403</v>
+        <v>-0.4904486641732608</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4120003274100118</v>
+        <v>-0.3935473027769072</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2688107261358298</v>
+        <v>0.222302083225805</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.06018520690154323</v>
+        <v>0.00306956667705478</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.002400464013652949</v>
+        <v>0.04541607529384575</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>-0.5381725301626533</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9200642102894147</v>
+        <v>0.9200642102894174</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.546405995912583</v>
+        <v>-1.496583509691096</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.471946027877588</v>
+        <v>-4.616360419881715</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.961144107489374</v>
+        <v>-1.858937845942584</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.594184987251696</v>
+        <v>6.549426530150966</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.879812463872961</v>
+        <v>2.848629392534828</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.510656051978812</v>
+        <v>3.802025419382667</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>-0.03472517682579343</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.06323195408648573</v>
+        <v>0.06323195408648592</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09323291286126287</v>
+        <v>-0.09643840275034116</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2466370243218085</v>
+        <v>-0.2617190870818935</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1212448722857504</v>
+        <v>-0.1212109446630802</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5867189441754318</v>
+        <v>0.5833151861018676</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2214114141656005</v>
+        <v>0.2119371798254147</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2686962486569923</v>
+        <v>0.2928076587360507</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-0.5950311517136347</v>
+        <v>-0.5950311517136403</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>5.37507339999726</v>
+        <v>5.375073399997257</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.458528396983745</v>
+        <v>2.458528396983747</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.83871771863601</v>
+        <v>-5.143668861983683</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.232371410996824</v>
+        <v>1.788064281182187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7059022435340895</v>
+        <v>-0.4458500348339565</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.472215250066862</v>
+        <v>3.38479902218504</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.966698152553507</v>
+        <v>9.112283755434596</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.080626830512588</v>
+        <v>5.280339316538503</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.03558242995652113</v>
+        <v>-0.03558242995652146</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.3308631467871713</v>
+        <v>0.3308631467871712</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1491503956303115</v>
+        <v>0.1491503956303116</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2537157309960507</v>
+        <v>-0.2656003387429506</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.06951798120715438</v>
+        <v>0.09740477417272923</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0370703676547264</v>
+        <v>-0.02843283533263635</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2307408132098921</v>
+        <v>0.232640545949211</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6497594736720602</v>
+        <v>0.6493118495699483</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3328690526316093</v>
+        <v>0.353458516012028</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.09685451174733473</v>
+        <v>-0.3215085644092276</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.252774958411923</v>
+        <v>-4.869082101836527</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.247103071064759</v>
+        <v>-1.368481249134038</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.157400916072012</v>
+        <v>8.882828054740639</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.3766970704628</v>
+        <v>5.158588818950151</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.756678775866736</v>
+        <v>5.398501595281204</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.008792727840739407</v>
+        <v>-0.018170491907643</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1784001190011691</v>
+        <v>-0.1688820230821329</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.05753217695838093</v>
+        <v>-0.06117504174591806</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6971337730360337</v>
+        <v>0.6925654200679751</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1946943520893346</v>
+        <v>0.2304443613808098</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3079559479550978</v>
+        <v>0.2883268746777503</v>
       </c>
     </row>
     <row r="34">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>1.629199379565518</v>
+        <v>1.629199379565524</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-3.342869027011552</v>
+        <v>-3.342869027011555</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-1.04363350615996</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.452617780367452</v>
+        <v>-3.86296478446544</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-9.471628899627193</v>
+        <v>-9.329729193339006</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.112198543935662</v>
+        <v>-4.690194028315879</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.777923672832522</v>
+        <v>6.608723335884083</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.720099753592518</v>
+        <v>1.74365900246207</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.643648530837991</v>
+        <v>2.634466606107668</v>
       </c>
     </row>
     <row r="37">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0.09769575728750804</v>
+        <v>0.09769575728750837</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.1350987984929793</v>
+        <v>-0.1350987984929794</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.04980093984672191</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1715963353324634</v>
+        <v>-0.1946672319131036</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3108735155905377</v>
+        <v>-0.3244170423078928</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2166496098214983</v>
+        <v>-0.1975868353288967</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4967703464966345</v>
+        <v>0.506054269416704</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.08306664929794016</v>
+        <v>0.07892741327351907</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1472376292247116</v>
+        <v>0.1413057116129142</v>
       </c>
     </row>
     <row r="40">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>-2.849336629391175</v>
+        <v>-2.849336629391177</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>-3.286507661898924</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-3.16035321791632</v>
+        <v>-3.160353217916323</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-8.259803760907944</v>
+        <v>-8.500517913605561</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.340524364344232</v>
+        <v>-9.294647886517209</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-7.63376589051816</v>
+        <v>-7.049073161282927</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.633168871456822</v>
+        <v>2.270452387761291</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.599878626874757</v>
+        <v>1.555432506448612</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.7098982587520102</v>
+        <v>0.9568475385572668</v>
       </c>
     </row>
     <row r="43">
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>-0.1548015123042142</v>
+        <v>-0.1548015123042143</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>-0.1378841355051095</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1455565064137052</v>
+        <v>-0.1455565064137053</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3845693524858059</v>
+        <v>-0.3889255072094601</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3307624181755475</v>
+        <v>-0.3338153444598221</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2998135201240975</v>
+        <v>-0.2873933624906712</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1761259525956184</v>
+        <v>0.1586088549592925</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.08494942922866987</v>
+        <v>0.07640547508337238</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.03710768185292126</v>
+        <v>0.05006806307222976</v>
       </c>
     </row>
     <row r="46">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.7585263113171703</v>
+        <v>0.7585263113171675</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>-0.1315753454410151</v>
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.112768685596001</v>
+        <v>-0.922760121898244</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.850768553271403</v>
+        <v>-1.986950078600362</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.8622283012892773</v>
+        <v>-0.8209237441560768</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.340887410366867</v>
+        <v>2.516185953461763</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.672971201187404</v>
+        <v>1.566874063322002</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.503131314155484</v>
+        <v>1.618527845046131</v>
       </c>
     </row>
     <row r="49">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="C49" s="6" t="n">
-        <v>0.05280292990251712</v>
+        <v>0.05280292990251692</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>-0.006968495156830734</v>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.07336041337925076</v>
+        <v>-0.06362302709752476</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.09357393304643122</v>
+        <v>-0.1010865121643726</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.04992034685823497</v>
+        <v>-0.04779260172972513</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1753645486627207</v>
+        <v>0.182041415937175</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.09329819748185082</v>
+        <v>0.08779717761150303</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.09399019980392755</v>
+        <v>0.1005003965506433</v>
       </c>
     </row>
     <row r="52">
